--- a/data/Book2.xlsx
+++ b/data/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Freddie/Documents/Monash/project/diffSimilarTech/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A01D455-61DA-014B-AD9F-6A2C6FACC39D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F4D011-E59C-7C44-8358-D63A61F3605A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{E9231C41-CF50-894C-8BA0-0C322546A1A9}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7310304E-3565-EC4A-A55A-91AC7BBD9F81}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1389,100 +1389,160 @@
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
